--- a/OtherFiles/unit_group.xlsx
+++ b/OtherFiles/unit_group.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#R\@github\npmcm\OtherFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#R\@github\CPMCM-Awards\OtherFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B96625-31CC-4853-A6F0-A5BDA46D7147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DA803B-07AE-4E66-B580-D053CE845D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="840" windowWidth="24910" windowHeight="15860" tabRatio="719" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13760" yWindow="7030" windowWidth="24910" windowHeight="15860" tabRatio="719" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="航天科技" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="1939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="1941">
   <si>
     <t>北京精密机电控制设备研究所</t>
   </si>
@@ -10417,2078 +10417,2087 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>北京航天飞行控制中心</t>
+  </si>
+  <si>
+    <t>军事航天部队(副战区级)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量通信总体研究所</t>
+  </si>
+  <si>
+    <t>航天研发中心</t>
+  </si>
+  <si>
+    <t>工程设计研究所</t>
+  </si>
+  <si>
+    <t>电视艺术中心</t>
+  </si>
+  <si>
+    <t>中国航天员科研训练中心</t>
+  </si>
+  <si>
+    <t>中国人民解放军航天员大队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天侦察局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀柔校区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平校区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河校区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民武装警察部队工程大学</t>
+  </si>
+  <si>
+    <t>中国人民武装警察部队研究院</t>
+  </si>
+  <si>
+    <t>中国人民武装警察部队广州警犬基地</t>
+  </si>
+  <si>
+    <t>中国人民武装警察部队呼和浩特警犬基地</t>
+  </si>
+  <si>
+    <t>武警部队(正军级)</t>
+  </si>
+  <si>
+    <t>武警部队(副军级)</t>
+  </si>
+  <si>
+    <t>2025年，该校停止透过高考招收普通高中毕业生。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年，由中国人民武装警察部队杭州士官学校、中国人民武装警察部队石家庄士官学校等单位调整组建。</t>
+  </si>
+  <si>
+    <t>武警部队</t>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公安海警学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民武装警察部队成都指挥学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2000年)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民武装警察部队警官学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2011)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民武装警察部队警官学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2017年，由原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>武警警官学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福州指挥学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>广州指挥学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调整组建)。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>沿革：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装备指挥技术学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1999年)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装备学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2011年)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>战略支援部队航天工程大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2017年)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>军事航天部队航天工程大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2024年4月，战略支援部队撤销番号，猜测划归为军事航天部队)。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>又称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>北京市遥感信息研究所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>又称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国航天员大队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>又称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军第五〇七研究所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>北京航天指挥控制中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>又称中国人民解放军</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第二十九试验训练基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63820部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>又称中国人民解放军</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第二十七试验训练基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63790部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>又称中国人民解放军</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第二十五试验训练基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63710部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>又称中国人民解放军</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第二十三试验训练基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63680部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>又称中国人民解放军</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第二十六试验训练基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63750部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>又称中国人民解放军</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第二十试验训练基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63600部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对外以解放军医学院名义招生。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原解放军总医院院部临床部。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原解放军总医院南楼临床部。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三〇二医院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合并原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>军事科学院军事医学研究院原附属医院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原第三〇七医院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>前身是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军国防大学国防研究系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民解放军陆军兵种大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌埠校区</t>
+  </si>
+  <si>
+    <t>南京校区</t>
+  </si>
+  <si>
+    <t>郑州校区</t>
+  </si>
+  <si>
+    <t>长春校区</t>
+  </si>
+  <si>
+    <t>沈阳校区</t>
+  </si>
+  <si>
+    <r>
+      <t>沿革：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军军事工程学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1952-1966)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哈尔滨工程学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1966-1970)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长沙工学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1970-1977)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军国防科学技术大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1977-2017)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军国防科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2017，由</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军国防科学技术大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军国际关系学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军国防信息学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军西安通信学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军电子工程学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军理工大学气象海洋学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为基础重建)。2025年5月，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>国防科技大学信息通信学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被抽走参与组建</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信息支援部队工程大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民解放军电子工程学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子对抗学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沈阳炮兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装甲兵技术学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>防空兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>郑州防空兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>防空兵指挥学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>南京炮兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炮兵学院南京分院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2025年5月，由</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陆军装甲兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(在北京)、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陆军炮兵防空兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(在合肥)为基础组建。其中：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陆军装甲兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，2017年以原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装甲兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(在蚌埠，原名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蚌埠坦克学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装甲兵工程学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(原在西安，后迁至北京)、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装甲兵技术学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(在长春，原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装甲兵士官学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)为基础重建。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陆军炮兵防空兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，2017年由</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陆军军官学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(在合肥，由原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合肥炮兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>南京炮兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组建，后又分开，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合肥炮兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陆军军官学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>南京炮兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(在南京，由原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炮兵学院南京分院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炮兵指挥学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(在宣化、廊坊)合并组建)、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>防空兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(在郑州，原名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>郑州防空兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>防空兵指挥学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沈阳炮兵学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(在沈阳)为基础组建。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装甲兵学院、蚌埠坦克学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安飞行自动控制研究所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京系统工程研究所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陆军军事交通学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本部、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>军事交通运输研究所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>军事交通运输研究所镇江校区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>军事经济学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陆军军事交通学院汽车士官学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>中国空气动力研究与发展中心</t>
-  </si>
-  <si>
-    <t>北京航天飞行控制中心</t>
-  </si>
-  <si>
-    <t>军事航天部队(副战区级)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测量通信总体研究所</t>
-  </si>
-  <si>
-    <t>航天研发中心</t>
-  </si>
-  <si>
-    <t>工程设计研究所</t>
-  </si>
-  <si>
-    <t>电视艺术中心</t>
-  </si>
-  <si>
-    <t>中国航天员科研训练中心</t>
-  </si>
-  <si>
-    <t>中国人民解放军航天员大队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>航天侦察局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怀柔校区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>昌平校区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙河校区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国人民武装警察部队工程大学</t>
-  </si>
-  <si>
-    <t>中国人民武装警察部队研究院</t>
-  </si>
-  <si>
-    <t>中国人民武装警察部队广州警犬基地</t>
-  </si>
-  <si>
-    <t>中国人民武装警察部队呼和浩特警犬基地</t>
-  </si>
-  <si>
-    <t>武警部队(正军级)</t>
-  </si>
-  <si>
-    <t>武警部队(副军级)</t>
-  </si>
-  <si>
-    <t>2025年，该校停止透过高考招收普通高中毕业生。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年，由中国人民武装警察部队杭州士官学校、中国人民武装警察部队石家庄士官学校等单位调整组建。</t>
-  </si>
-  <si>
-    <t>武警部队</t>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>公安海警学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民武装警察部队成都指挥学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2000年)-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民武装警察部队警官学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2011)-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民武装警察部队警官学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2017年，由原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>武警警官学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福州指挥学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>广州指挥学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>调整组建)。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>沿革：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>装备指挥技术学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1999年)-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>装备学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2011年)-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>战略支援部队航天工程大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2017年)-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>军事航天部队航天工程大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2024年4月，战略支援部队撤销番号，猜测划归为军事航天部队)。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>又称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>北京市遥感信息研究所</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>又称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国航天员大队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>又称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军第五〇七研究所</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>北京航天指挥控制中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>又称中国人民解放军</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第二十九试验训练基地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>63820部队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>又称中国人民解放军</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第二十七试验训练基地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>63790部队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>又称中国人民解放军</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第二十五试验训练基地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>63710部队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>又称中国人民解放军</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第二十三试验训练基地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>63680部队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>又称中国人民解放军</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第二十六试验训练基地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>63750部队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>又称中国人民解放军</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第二十试验训练基地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>63600部队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对外以解放军医学院名义招生。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原解放军总医院院部临床部。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原解放军总医院南楼临床部。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>三〇二医院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>合并原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>军事科学院军事医学研究院原附属医院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>原第三〇七医院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>前身是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军国防大学国防研究系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国人民解放军陆军兵种大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚌埠校区</t>
-  </si>
-  <si>
-    <t>南京校区</t>
-  </si>
-  <si>
-    <t>郑州校区</t>
-  </si>
-  <si>
-    <t>长春校区</t>
-  </si>
-  <si>
-    <t>沈阳校区</t>
-  </si>
-  <si>
-    <r>
-      <t>沿革：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军军事工程学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1952-1966)-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>哈尔滨工程学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1966-1970)-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>长沙工学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1970-1977)-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军国防科学技术大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1977-2017)-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军国防科技大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2017，由</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军国防科学技术大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军国际关系学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军国防信息学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军西安通信学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军电子工程学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军理工大学气象海洋学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>为基础重建)。2025年5月，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>国防科技大学信息通信学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>被抽走参与组建</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>信息支援部队工程大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国人民解放军电子工程学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子对抗学院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>沈阳炮兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>装甲兵技术学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>防空兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>郑州防空兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>防空兵指挥学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>南京炮兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>炮兵学院南京分院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2025年5月，由</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>陆军装甲兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(在北京)、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>陆军炮兵防空兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(在合肥)为基础组建。其中：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>陆军装甲兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，2017年以原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>装甲兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(在蚌埠，原名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蚌埠坦克学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>装甲兵工程学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(原在西安，后迁至北京)、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>装甲兵技术学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(在长春，原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>装甲兵士官学校</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)为基础重建。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>陆军炮兵防空兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，2017年由</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>陆军军官学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(在合肥，由原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>合肥炮兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>南京炮兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组建，后又分开，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>合肥炮兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>成为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>陆军军官学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>南京炮兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(在南京，由原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>炮兵学院南京分院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>炮兵指挥学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(在宣化、廊坊)合并组建)、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>防空兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(在郑州，原名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>郑州防空兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>防空兵指挥学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>沈阳炮兵学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(在沈阳)为基础组建。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>装甲兵学院、蚌埠坦克学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安飞行自动控制研究所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京系统工程研究所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>陆军军事交通学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>本部、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>军事交通运输研究所</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>军事交通运输研究所镇江校区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>军事经济学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>陆军军事交通学院汽车士官学校</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市生态环境保护科学研究院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原北京市环境保护科学研究院，2021年9月更名，主管部门为北京市生态环境局</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -14727,7 +14736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
@@ -18077,8 +18086,8 @@
   <dimension ref="A1:F231"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
+      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18310,7 +18319,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -18420,7 +18429,7 @@
         <v>481</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -18579,7 +18588,7 @@
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>1569</v>
@@ -18588,7 +18597,7 @@
         <v>961</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -18958,7 +18967,7 @@
         <v>1674</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29" t="s">
@@ -18968,14 +18977,14 @@
         <v>961</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>1569</v>
@@ -18984,14 +18993,14 @@
         <v>1013</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="24" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>524</v>
@@ -19000,14 +19009,14 @@
         <v>525</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>484</v>
@@ -19016,14 +19025,14 @@
         <v>485</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>1648</v>
@@ -19032,14 +19041,14 @@
         <v>1031</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="24" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>414</v>
@@ -19048,7 +19057,7 @@
         <v>622</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="56" x14ac:dyDescent="0.3">
@@ -20408,7 +20417,7 @@
         <v>66</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -20424,7 +20433,7 @@
         <v>66</v>
       </c>
       <c r="F156" s="23" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -20472,7 +20481,7 @@
         <v>66</v>
       </c>
       <c r="F159" s="23" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -20616,7 +20625,7 @@
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
       <c r="F170" s="23" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -20694,7 +20703,7 @@
         <v>129</v>
       </c>
       <c r="F176" s="26" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -20710,7 +20719,7 @@
         <v>1835</v>
       </c>
       <c r="F177" s="26" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -20726,7 +20735,7 @@
         <v>1390</v>
       </c>
       <c r="F178" s="26" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -20742,7 +20751,7 @@
         <v>1836</v>
       </c>
       <c r="F179" s="26" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -21056,7 +21065,7 @@
         <v>1869</v>
       </c>
       <c r="F203" s="23" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -21074,7 +21083,7 @@
         <v>1871</v>
       </c>
       <c r="F204" s="23" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -21092,7 +21101,7 @@
         <v>1874</v>
       </c>
       <c r="F205" s="23" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -21110,7 +21119,7 @@
         <v>20</v>
       </c>
       <c r="F206" s="23" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -21128,7 +21137,7 @@
         <v>1876</v>
       </c>
       <c r="F207" s="23" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -21136,7 +21145,7 @@
         <v>1867</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>1878</v>
+        <v>1938</v>
       </c>
       <c r="C208" s="30"/>
       <c r="D208" s="30" t="s">
@@ -21146,15 +21155,15 @@
         <v>910</v>
       </c>
       <c r="F208" s="26" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="30" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C209" s="30"/>
       <c r="D209" s="30" t="s">
@@ -21164,7 +21173,7 @@
         <v>66</v>
       </c>
       <c r="F209" s="26" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -21172,7 +21181,7 @@
         <v>1562</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C210" s="30"/>
       <c r="D210" s="30" t="s">
@@ -21204,7 +21213,7 @@
         <v>1562</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C212" s="30"/>
       <c r="D212" s="30"/>
@@ -21216,7 +21225,7 @@
         <v>1562</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C213" s="30"/>
       <c r="D213" s="30"/>
@@ -21228,7 +21237,7 @@
         <v>1562</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C214" s="30"/>
       <c r="D214" s="30"/>
@@ -21240,7 +21249,7 @@
         <v>1562</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C215" s="30"/>
       <c r="D215" s="30" t="s">
@@ -21250,7 +21259,7 @@
         <v>66</v>
       </c>
       <c r="F215" s="23" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -21258,7 +21267,7 @@
         <v>1872</v>
       </c>
       <c r="B216" s="30" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C216" s="30"/>
       <c r="D216" s="30" t="s">
@@ -21268,7 +21277,7 @@
         <v>66</v>
       </c>
       <c r="F216" s="26" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -21276,7 +21285,7 @@
         <v>1562</v>
       </c>
       <c r="B217" s="30" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C217" s="30"/>
       <c r="D217" s="30" t="s">
@@ -21286,7 +21295,7 @@
         <v>66</v>
       </c>
       <c r="F217" s="26" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -21304,14 +21313,14 @@
         <v>66</v>
       </c>
       <c r="F218" s="23" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="23"/>
       <c r="C219" s="23" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D219" s="23" t="s">
         <v>169</v>
@@ -21325,7 +21334,7 @@
       <c r="A220" s="23"/>
       <c r="B220" s="23"/>
       <c r="C220" s="23" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D220" s="23" t="s">
         <v>169</v>
@@ -21339,7 +21348,7 @@
       <c r="A221" s="23"/>
       <c r="B221" s="23"/>
       <c r="C221" s="23" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D221" s="23" t="s">
         <v>169</v>
@@ -21351,7 +21360,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="29" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B222" s="29" t="s">
         <v>1526</v>
@@ -21367,10 +21376,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="29" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B223" s="29" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C223" s="29"/>
       <c r="D223" s="29" t="s">
@@ -21383,7 +21392,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="29" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B224" s="29" t="s">
         <v>1528</v>
@@ -21396,12 +21405,12 @@
         <v>18</v>
       </c>
       <c r="F224" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="29" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B225" s="29" t="s">
         <v>1529</v>
@@ -21417,7 +21426,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="29" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B226" s="29" t="s">
         <v>1531</v>
@@ -21430,12 +21439,12 @@
         <v>1568</v>
       </c>
       <c r="F226" s="28" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A227" s="29" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B227" s="29" t="s">
         <v>1527</v>
@@ -21448,12 +21457,12 @@
         <v>624</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A228" s="29" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B228" s="29" t="s">
         <v>1530</v>
@@ -21466,15 +21475,15 @@
         <v>511</v>
       </c>
       <c r="F228" s="28" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="29" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B229" s="29" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C229" s="29"/>
       <c r="D229" s="29" t="s">
@@ -21487,10 +21496,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="29" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B230" s="29" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C230" s="29"/>
       <c r="D230" s="29" t="s">
@@ -21503,10 +21512,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="29" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B231" s="29" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C231" s="29"/>
       <c r="D231" s="29" t="s">
@@ -21532,8 +21541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B4D1F3-B946-40E1-BBE1-6E2A2A6F159E}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21572,7 +21581,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>169</v>
@@ -21613,10 +21622,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1940</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -23724,7 +23741,7 @@
         <v>562</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>643</v>
